--- a/biology/Botanique/Prix_de_Coincy/Prix_de_Coincy.xlsx
+++ b/biology/Botanique/Prix_de_Coincy/Prix_de_Coincy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix de Coincy est une distinction décernée par la Société botanique de France depuis 1904. En hommage au botaniste Auguste-Henri Cornut de la Fontaine de Coincy[1] (1837-1903), elle est attribuée à un botaniste pour l’importance de ses travaux de recherche en taxinomie.
-Le prix de Coincy fait partie des fondations de la grande médaille de l'Académie des sciences[2].
+Le prix de Coincy est une distinction décernée par la Société botanique de France depuis 1904. En hommage au botaniste Auguste-Henri Cornut de la Fontaine de Coincy (1837-1903), elle est attribuée à un botaniste pour l’importance de ses travaux de recherche en taxinomie.
+Le prix de Coincy fait partie des fondations de la grande médaille de l'Académie des sciences.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1905 : Jules Aimé Battandier et Louis Charles Trabut
 1906 : Auguste Marie Hue
@@ -659,7 +673,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(fr) Site officiel de la Société botanique de France
 (fr) Site officiel du prix de Coincy
